--- a/Dataset/net_trade_data.xlsx
+++ b/Dataset/net_trade_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nPC\Documents\GitHub\proyect_powebi_rare-earth-metal-compounds\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nPC\Documents\GitHub\proyect_powebi_rare-earth\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A18891-EA2C-483C-A7F8-F472CBA0EC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A862CB9A-9BF0-4C51-BFE6-F01970F53472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
